--- a/data/ELS모음.xlsx
+++ b/data/ELS모음.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>발행사</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>ELS명</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>기초자산</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>수익률</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>최대손실률</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>구조</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>청약기간</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>발행사</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -478,35 +478,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2208회파생결합증권(주가연계증권)</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2208회</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>S&amp;P500</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>6.4</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>90-90-85-80-75-70) 45KI</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2023.01.18~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,35 +518,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2209회파생결합증권(주가연계증권)</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2209회</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>7.2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>90-90-85-80-75-70) 45KI</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2023.01.18~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -558,35 +558,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2210회파생결합증권(주가연계증권)</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2210회</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>HSCEI, NIKKEI225, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>7.5</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>80-80-80-80-75-55) NO KI</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2023.01.18~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -598,35 +598,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2211회파생결합증권(주가연계증권)</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2211회</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>HSCEI, NIKKEI225, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>7.8</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>90-85-85-80-75-65) 45KI</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2023.01.18~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -638,35 +638,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2212회파생결합증권(주가연계증권)</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2212회</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>S&amp;P500, HSCEI, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>85-85-85-80-75-70) 40KI</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>2023.01.18~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -678,35 +678,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2213회파생결합증권(주가연계증권)</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2213회</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>S&amp;P500, NIKKEI225, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>88-88-88-85-80-75) 43KI</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>2023.01.18~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -718,35 +718,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2214회파생결합증권(주가연계증권)</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2214회</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>S&amp;P500, HSCEI, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>9.1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>83-83-83-80-80-75) 43KI</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>2023.01.18~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -758,35 +758,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2215회파생결합증권(주가연계증권)</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2215회</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>S&amp;P500, HSCEI, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>9.6</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>85-85-85-80-75-70) 45KI</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>2023.01.18~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -798,35 +798,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2216회파생결합증권(주가연계증권)</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>2216회</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>S&amp;P500, EUROSTOXX50, LG화학</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>11.4</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>85-85-85-80-75-70) 45KI</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>2023.01.18~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -838,35 +838,35 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>599회뉴글로벌100조파생결합증권(주가연</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>599회뉴글로벌100조</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>S&amp;P500, 테슬라</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>18.5</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>70-70-65-60) 30KI</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>2023.01.20~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -878,35 +878,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>600회뉴글로벌100조파생결합증권(주가연</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>600회뉴글로벌100조</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>S&amp;P500, 테슬라</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>23</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>85-80-80-75-75-70-70-60) 35KI</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>2023.01.20~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -918,35 +918,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>601회뉴글로벌100조파생결합증권(주가연</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>601회뉴글로벌100조</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>아마존, 엔비디아</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>18.2</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>85-80-75-75-70-65) 45KI</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>2023.01.20~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -958,35 +958,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>602회뉴글로벌100조파생결합증권(주가연</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>602회뉴글로벌100조</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>테슬라, 엔비디아</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>30</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>80-80-80-75-75-70-70-65) 40KI</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>2023.01.20~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -998,35 +998,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>603회뉴글로벌100조파생결합증권(주가연</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>603회뉴글로벌100조</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>테슬라, AMD</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>31.2</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>85-80-70-65) 40KI</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>2023.01.20~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1038,35 +1038,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>604회뉴글로벌100조파생결합증권(주가연</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>604회뉴글로벌100조</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>테슬라, 엔비디아</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>34.2</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>85-80-70-65) 45KI</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>2023.01.20~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1078,35 +1078,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>605회뉴글로벌100조파생결합증권(주가연</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>605회뉴글로벌100조</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>S&amp;P500, 테슬라</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>21.3</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>85-85-80-65)40KI</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>2023.01.20~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1118,35 +1118,35 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>606회뉴글로벌100조파생결합증권(주가연</t>
+          <t>키움증권</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>606회뉴글로벌100조</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>S&amp;P500, 테슬라</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>13.2</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>85-85-80-75-70-65)40KI</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>2023.01.20~2023.02.02</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>키움증권</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1158,35 +1158,35 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>NH투자증권(ELS)22231</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>S&amp;P500, HSCEI, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>6.5</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>80-80-80-80-75-70/40</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>2023.01.25(08:30)~2023.02.01(16:00)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1198,35 +1198,35 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>NH Now(ELS)118</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>NVIDIA CORP., MICRON TECHNOLOGY</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>17.8</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>80-80-80-80-80-75/40</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>2023.01.30(08:30)~2023.02.08(16:00)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1238,35 +1238,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>NH투자증권(ELS)22233</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>KOSPI200, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>8.52</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>90-85-85-80-80-75/50</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>2023.01.25(08:30)~2023.02.01(16:00)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1278,35 +1278,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>NH Now(ELS)115</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>NVIDIA CORP, MICRON TECHNOLOGY</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>18</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>80-80-80-80-80-75/40</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>2023.01.25(08:30)~2023.02.01(16:00)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1318,35 +1318,35 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>NH Now(ELS)114</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>테슬라</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>80-80-80-75-70-65/35</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>2023.01.25(08:30)~2023.02.01(16:00)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1358,35 +1358,35 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>NH투자증권(ELS)22232</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>KOSPI200, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>7.3</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>85-85-85-80-80-75/45</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>2023.01.25(08:30)~2023.02.01(16:00)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1398,35 +1398,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>NH투자증권(ELS)22245</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>KOSPI200, HSCEI, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>6.4</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>80-80-80-80-75-70/40</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>2023.01.30(08:30)~2023.02.08(16:00)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1438,35 +1438,35 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>NH투자증권(ELS)22243</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>KOSPI200, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>7.3</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>85-85-85-80-80-75/45</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>2023.01.30(08:30)~2023.02.08(16:00)</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1478,35 +1478,35 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>NH투자증권(ELS)22247</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>테슬라 , ADVANCED MICRO DEVICES</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>22.1</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>85-80-80-75/45</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>2023.01.30(08:30)~2023.02.08(16:00)</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1518,35 +1518,35 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>NH Now(ELS)117</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>테슬라</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>19</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>75-70-70-70-70-65/35</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>2023.01.30(08:30)~2023.02.08(16:00)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1558,35 +1558,35 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>NH투자증권(ELS)22241</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>S&amp;P500, HSCEI, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>7.32</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>95-90-85-85-80-75/50</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>2023.01.30(08:30)~2023.02.08(16:00)</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1598,35 +1598,35 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>NH투자증권</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>NH투자증권(ELS)22246</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>HSCEI, NIKKEI225, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>8</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>95-90-85-80-80-75/45</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>2023.01.30(08:30)~2023.02.08(16:00)</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>NH투자증권</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1638,35 +1638,35 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>미래에셋증권(ELS)33468e(주식지급형 리자드)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>아마존, 엔비디아</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>15</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>80-80(L50)-80-80-80-75, KI 40, 원화</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>2023.02.02</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1678,35 +1678,35 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>미래에셋증권(ELS)33467(주식지급형 스텝다운)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>엔비디아, S&amp;P500</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>14.3</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>80-80-80-80-80-75, KI 40, 원화</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>2023.02.02</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1718,35 +1718,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>미래에셋증권(ELS)33466(주식지급형 스텝다운)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>아마존, S&amp;P500</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>9</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>80-80-80-80-80-75, KI 40, 원화</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>2023.02.02</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1758,35 +1758,35 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>미래에셋증권(ELS)33465(월지급식)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>NIKKEI225, EUROSTOXX50, S&amp;P500</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>7.2</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>95-90-90-85-80-80(월쿠폰배리어:50), KI 50, 원화</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>2023.02.02</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1798,35 +1798,35 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>미래에셋증권(ELS)33464e(스텝다운)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>NIKKEI225, EUROSTOXX50, HSCEI</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>7</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>80-80-80-80-80-75, KI 45, 원화</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>2023.02.02</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1838,35 +1838,35 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>미래에셋증권(ELS)33463(스텝다운)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>NIKKEI225, EUROSTOXX50, KOSPI200</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>90-90-85-85-80-75, KI 50, 원화</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>2023.02.02</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1878,35 +1878,35 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>미래에셋증권(ELS)33462e(스텝다운)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>NIKKEI225, EUROSTOXX50, KOSPI200</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>7.8</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>85-85-85-80-80-80, KI 55, 원화</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>2023.02.02</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1918,35 +1918,35 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>미래에셋증권(ELS)33461(스텝다운)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>NIKKEI225, EUROSTOXX50, KOSPI200</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>7</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>90-90-85-80-75-60, No KI , 원화</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>2023.02.02</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1958,35 +1958,35 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>미래에셋증권</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>미래에셋증권(ELS)33460(스텝다운)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>EUROSTOXX50, S&amp;P500</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>7</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>90-90-85-85-80-75, KI 50, 원화</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>2023.02.02</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1998,35 +1998,35 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15674 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15674 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>7.2</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>85-85-85-80-80-75/40(종가)</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2038,35 +2038,35 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15675 회 (파워스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15675 회 (파워스텝다운)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>KOSPI200, HSCEI, S&amp;P500</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>7.5</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>90-90-85-80-75-55(No K.I)</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2078,35 +2078,35 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15676 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15676 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>KOSPI200, HSCEI, S&amp;P500</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>8</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>85-85-85-80-80-80/50(종가)</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2118,35 +2118,35 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15677 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15677 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>8.5</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>90-85-85-80-80-75/45(종가)</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2158,35 +2158,35 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15678 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15678 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>KOSPI200, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>7</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>95-90-85-80-75-65/50(종가)</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2198,35 +2198,35 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15679 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15679 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>95-90-85-80-75-65/50(종가)</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2238,35 +2238,35 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15680 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15680 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>9</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>95-90-85-85-85-85-80-80-80/50(종가)</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2278,35 +2278,35 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>원금비보장종목형TRUE ELS 제15681 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15681 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>삼성전자, HSCEI, S&amp;P500</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>8.6</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>90-85-85-80-80-75/45(종가)</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2318,35 +2318,35 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>원금비보장종목형TRUE ELS 제15682 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15682 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>삼성전자, HSCEI, S&amp;P500</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>9</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>90-85-85-80-80-75/50(종가)</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2358,35 +2358,35 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>원금비보장종목형TRUE ELS 제15683 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15683 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>NAVER, 현대차</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>8</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>90-85-85-80-80-75/45(종가)</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2398,35 +2398,35 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>원금비보장종목형TRUE ELS 제15684 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15684 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>테슬라</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>14</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>70-70-70-70-65-60/25(종가)</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2438,35 +2438,35 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>원금비보장종목형뱅키스계좌전용TRUE ELS 제15687 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>뱅키스계좌전용TRUE ELS 제15687 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>NETFLIX, , NVIDIA, CORPORATION</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>20.3</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>85-80-75-70-65-60/40(종가)</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2478,35 +2478,35 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>원금비보장종목형TRUE ELS 제15685 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15685 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>테슬라</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>17</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>75-75-70-70-65-60/35(종가)</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2518,35 +2518,35 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>원금비보장종목형TRUE ELS 제15684 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15684 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>테슬라</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>14</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>70-70-70-70-65-60/25(종가)</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2558,35 +2558,35 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>원금비보장종목형TRUE ELS 제15686 회 (무조건 월지급식 스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15686 회 (무조건 월지급식 스텝다운)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>테슬라, S&amp;P500</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>12</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>80-80-75-75-70-60/40(종가)</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2598,35 +2598,35 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15679 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15679 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>9</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>95-90-85-80-75-65/50(종가)</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2638,35 +2638,35 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15680 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15680 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>9</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>95-90-85-85-85-85-80-80-80/50(종가)</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2678,35 +2678,35 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>원금비보장종목형TRUE ELS 제15682 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15682 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>삼성전자, HSCEI, S&amp;P500</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>9</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>90-85-85-80-80-75/50(종가)</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2718,35 +2718,35 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>원금비보장종목형TRUE ELS 제15681 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15681 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>삼성전자, HSCEI, S&amp;P500</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>8.6</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>90-85-85-80-80-75/45(종가)</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2758,35 +2758,35 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15677 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15677 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>8.5</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>90-85-85-80-80-75/45(종가)</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2798,35 +2798,35 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15676 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15676 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>KOSPI200, HSCEI, S&amp;P500</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>8</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>85-85-85-80-80-80/50(종가)</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2838,35 +2838,35 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>원금비보장종목형TRUE ELS 제15683 회 (스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15683 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>NAVER, 현대차</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>8</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>90-85-85-80-80-75/45(종가)</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2878,35 +2878,35 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>원금비보장지수형TRUE ELS 제15675 회 (파워스텝다운)</t>
+          <t>한국투자증권</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15675 회 (파워스텝다운)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>KOSPI200, HSCEI, S&amp;P500</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>7.5</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>90-90-85-80-75-55(No K.I)</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>한국투자증권</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">

--- a/data/ELS모음.xlsx
+++ b/data/ELS모음.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>낙인</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>타입</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,6 +519,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -554,6 +564,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -591,7 +606,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">O </t>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -634,6 +654,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +699,11 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -714,6 +744,11 @@
           <t>43</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +789,11 @@
           <t>43</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -794,6 +834,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -834,6 +879,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -874,6 +924,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -914,6 +969,11 @@
           <t>35</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -954,6 +1014,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -994,6 +1059,11 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1034,6 +1104,11 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1074,6 +1149,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1114,6 +1194,11 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1154,6 +1239,11 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1194,6 +1284,11 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1234,6 +1329,11 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1274,6 +1374,11 @@
           <t>50</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1314,6 +1419,11 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1354,6 +1464,11 @@
           <t>35</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1394,6 +1509,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1434,6 +1554,11 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1474,6 +1599,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1514,6 +1644,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1554,6 +1689,11 @@
           <t>35</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1594,6 +1734,11 @@
           <t>50</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1634,6 +1779,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1643,16 +1793,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>미래에셋증권(ELS)33468e(주식지급형 리자드)</t>
+          <t>미래에셋증권(ELS)33478e(주식지급형 스텝다운)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>아마존, 엔비디아</t>
+          <t>ALPHABET CLASS A, 애플</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1661,17 +1811,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>80-80(L50)-80-80-80-75, KI 40, 원화</t>
+          <t>85-85-85-85-80-75, KI 45, 원화</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2023.02.02</t>
+          <t>2023.02.08</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">, </t>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
@@ -1683,16 +1838,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>미래에셋증권(ELS)33467(주식지급형 스텝다운)</t>
+          <t>미래에셋증권(ELS)33477(주식지급형 스텝다운)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>엔비디아, S&amp;P500</t>
+          <t>아마존, S&amp;P500</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>14.3</v>
+        <v>10</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1701,17 +1856,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>80-80-80-80-80-75, KI 40, 원화</t>
+          <t>85-85-85-85-80-75, KI 45, 원화</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2023.02.02</t>
+          <t>2023.02.08</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">, </t>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
@@ -1723,16 +1883,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>미래에셋증권(ELS)33466(주식지급형 스텝다운)</t>
+          <t>미래에셋증권(ELS)33476(주식지급형 스텝다운)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>아마존, S&amp;P500</t>
+          <t>S&amp;P500, AMD</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>12.1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1746,12 +1906,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2023.02.02</t>
+          <t>2023.02.08</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">, </t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
@@ -1763,16 +1928,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>미래에셋증권(ELS)33465(월지급식)</t>
+          <t>미래에셋증권(ELS)33475e(스텝다운)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NIKKEI225, EUROSTOXX50, S&amp;P500</t>
+          <t>NIKKEI225, EUROSTOXX50, HSCEI</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1781,17 +1946,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>95-90-90-85-80-80(월쿠폰배리어:50), KI 50, 원화</t>
+          <t>80-80-80-80-80-75, KI 50, 원화</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2023.02.02</t>
+          <t>2023.02.08</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">, </t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -1803,16 +1973,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>미래에셋증권(ELS)33464e(스텝다운)</t>
+          <t>미래에셋증권(ELS)33474e(스텝다운)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NIKKEI225, EUROSTOXX50, HSCEI</t>
+          <t>EUROSTOXX50, HSCEI, KOSPI200</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1821,17 +1991,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>80-80-80-80-80-75, KI 45, 원화</t>
+          <t>85-85-85-80-80-80, KI 45, 원화</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2023.02.02</t>
+          <t>2023.02.08</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">, </t>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -1843,16 +2018,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>미래에셋증권(ELS)33463(스텝다운)</t>
+          <t>미래에셋증권(ELS)33473(월지급식)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NIKKEI225, EUROSTOXX50, KOSPI200</t>
+          <t>NIKKEI225, EUROSTOXX50, S&amp;P500</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8.199999999999999</v>
+        <v>7.02</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1861,17 +2036,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>90-90-85-85-80-75, KI 50, 원화</t>
+          <t>95-90-90-85-80-80 (월쿠폰배리어 : 50), KI 50, 원화</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2023.02.02</t>
+          <t>2023.02.08</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">, </t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -1883,16 +2063,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>미래에셋증권(ELS)33462e(스텝다운)</t>
+          <t>미래에셋증권(ELS)33472e(스텝다운)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NIKKEI225, EUROSTOXX50, KOSPI200</t>
+          <t>EUROSTOXX50, KOSPI200, S&amp;P500</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1901,17 +2081,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>85-85-85-80-80-80, KI 55, 원화</t>
+          <t>95-90-85-85-80-75, KI 50, 원화</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2023.02.02</t>
+          <t>2023.02.08</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">, </t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -1923,7 +2108,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>미래에셋증권(ELS)33461(스텝다운)</t>
+          <t>미래에셋증권(ELS)33471(스텝다운)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1932,7 +2117,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1941,17 +2126,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>90-90-85-80-75-60, No KI , 원화</t>
+          <t>88-88-88-85-80-75, KI 50, 원화</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2023.02.02</t>
+          <t>2023.02.08</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">o </t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -1963,12 +2153,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>미래에셋증권(ELS)33460(스텝다운)</t>
+          <t>미래에셋증권(ELS)33470(스텝다운)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EUROSTOXX50, S&amp;P500</t>
+          <t>NIKKEI225, EUROSTOXX50, KOSPI200</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1981,38 +2171,43 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>90-90-85-85-80-75, KI 50, 원화</t>
+          <t>95-90-85-80-75-55, No KI, 원화</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2023.02.02</t>
+          <t>2023.02.08</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">, </t>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>한국투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15674 회 (스텝다운)</t>
+          <t>미래에셋증권(ELS)33469(스텝다운)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
+          <t>KOSPI200, S&amp;P500</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2021,38 +2216,43 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>85-85-85-80-80-75/40(종가)</t>
+          <t>90-90-85-85-80-75, KI 50, 원화</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2023.01.25 ~2023.02.01</t>
+          <t>2023.02.08</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>한국투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15675 회 (파워스텝다운)</t>
+          <t>미래에셋증권(ELS)33468e(주식지급형 리자드)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>KOSPI200, HSCEI, S&amp;P500</t>
+          <t>아마존, 엔비디아</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2061,38 +2261,43 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>90-90-85-80-75-55(No K.I)</t>
+          <t>80-80(L50)-80-80-80-75, KI 40, 원화</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2023.01.25 ~2023.02.01</t>
+          <t>2023.02.02</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>90-90-85-80-75-55(No K.I)</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>한국투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15676 회 (스텝다운)</t>
+          <t>미래에셋증권(ELS)33467(주식지급형 스텝다운)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>KOSPI200, HSCEI, S&amp;P500</t>
+          <t>엔비디아, S&amp;P500</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>14.3</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2101,38 +2306,43 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>85-85-85-80-80-80/50(종가)</t>
+          <t>80-80-80-80-80-75, KI 40, 원화</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2023.01.25 ~2023.02.01</t>
+          <t>2023.02.02</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>한국투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15677 회 (스텝다운)</t>
+          <t>미래에셋증권(ELS)33466(주식지급형 스텝다운)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
+          <t>아마존, S&amp;P500</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2141,38 +2351,43 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>90-85-85-80-80-75/45(종가)</t>
+          <t>80-80-80-80-80-75, KI 40, 원화</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2023.01.25 ~2023.02.01</t>
+          <t>2023.02.02</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>한국투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15678 회 (스텝다운)</t>
+          <t>미래에셋증권(ELS)33465(월지급식)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>KOSPI200, S&amp;P500, EUROSTOXX50</t>
+          <t>NIKKEI225, EUROSTOXX50, S&amp;P500</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2181,38 +2396,43 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>95-90-85-80-75-65/50(종가)</t>
+          <t>95-90-90-85-80-80(월쿠폰배리어:50), KI 50, 원화</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2023.01.25 ~2023.02.01</t>
+          <t>2023.02.02</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>50</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>한국투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15679 회 (스텝다운)</t>
+          <t>미래에셋증권(ELS)33464e(스텝다운)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
+          <t>NIKKEI225, EUROSTOXX50, HSCEI</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2221,38 +2441,43 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>95-90-85-80-75-65/50(종가)</t>
+          <t>80-80-80-80-80-75, KI 45, 원화</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2023.01.25 ~2023.02.01</t>
+          <t>2023.02.02</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>한국투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15680 회 (스텝다운)</t>
+          <t>미래에셋증권(ELS)33463(스텝다운)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
+          <t>NIKKEI225, EUROSTOXX50, KOSPI200</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2261,38 +2486,43 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>95-90-85-85-85-85-80-80-80/50(종가)</t>
+          <t>90-90-85-85-80-75, KI 50, 원화</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2023.01.25 ~2023.02.01</t>
+          <t>2023.02.02</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
           <t>50</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>한국투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15681 회 (스텝다운)</t>
+          <t>미래에셋증권(ELS)33462e(스텝다운)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>삼성전자, HSCEI, S&amp;P500</t>
+          <t>NIKKEI225, EUROSTOXX50, KOSPI200</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2301,38 +2531,43 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>90-85-85-80-80-75/45(종가)</t>
+          <t>85-85-85-80-80-80, KI 55, 원화</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2023.01.25 ~2023.02.01</t>
+          <t>2023.02.02</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>한국투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15682 회 (스텝다운)</t>
+          <t>미래에셋증권(ELS)33461(스텝다운)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>삼성전자, HSCEI, S&amp;P500</t>
+          <t>NIKKEI225, EUROSTOXX50, KOSPI200</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2341,38 +2576,43 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>90-85-85-80-80-75/50(종가)</t>
+          <t>90-90-85-80-75-60, No KI , 원화</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2023.01.25 ~2023.02.01</t>
+          <t>2023.02.02</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>한국투자증권</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15683 회 (스텝다운)</t>
+          <t>미래에셋증권(ELS)33460(스텝다운)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NAVER, 현대차</t>
+          <t>EUROSTOXX50, S&amp;P500</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2381,17 +2621,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>90-85-85-80-80-75/45(종가)</t>
+          <t>90-90-85-85-80-75, KI 50, 원화</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2023.01.25 ~2023.02.01</t>
+          <t>2023.02.02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -2403,16 +2648,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15684 회 (스텝다운)</t>
+          <t>TRUE ELS 제15674 회 (스텝다운)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>테슬라</t>
+          <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2421,7 +2666,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>70-70-70-70-65-60/25(종가)</t>
+          <t>85-85-85-80-80-75/40(종가)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2431,7 +2676,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -2443,16 +2693,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>뱅키스계좌전용TRUE ELS 제15687 회 (스텝다운)</t>
+          <t>TRUE ELS 제15675 회 (파워스텝다운)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NETFLIX, , NVIDIA, CORPORATION</t>
+          <t>KOSPI200, HSCEI, S&amp;P500</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>20.3</v>
+        <v>7.5</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2461,7 +2711,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>85-80-75-70-65-60/40(종가)</t>
+          <t>90-90-85-80-75-55(No K.I)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2471,7 +2721,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -2483,16 +2738,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15685 회 (스텝다운)</t>
+          <t>TRUE ELS 제15676 회 (스텝다운)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>테슬라</t>
+          <t>KOSPI200, HSCEI, S&amp;P500</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2501,7 +2756,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>75-75-70-70-65-60/35(종가)</t>
+          <t>85-85-85-80-80-80/50(종가)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2511,7 +2766,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -2523,16 +2783,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15684 회 (스텝다운)</t>
+          <t>TRUE ELS 제15677 회 (스텝다운)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>테슬라</t>
+          <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2541,7 +2801,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>70-70-70-70-65-60/25(종가)</t>
+          <t>90-85-85-80-80-75/45(종가)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2551,7 +2811,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -2563,16 +2828,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15686 회 (무조건 월지급식 스텝다운)</t>
+          <t>TRUE ELS 제15678 회 (스텝다운)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>테슬라, S&amp;P500</t>
+          <t>KOSPI200, S&amp;P500, EUROSTOXX50</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2581,7 +2846,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>80-80-75-75-70-60/40(종가)</t>
+          <t>95-90-85-80-75-65/50(종가)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2591,7 +2856,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
@@ -2634,6 +2904,11 @@
           <t>50</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2674,6 +2949,11 @@
           <t>50</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2683,7 +2963,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15682 회 (스텝다운)</t>
+          <t>TRUE ELS 제15681 회 (스텝다운)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2692,7 +2972,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2701,7 +2981,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>90-85-85-80-80-75/50(종가)</t>
+          <t>90-85-85-80-80-75/45(종가)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2711,7 +2991,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
@@ -2723,7 +3008,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15681 회 (스텝다운)</t>
+          <t>TRUE ELS 제15682 회 (스텝다운)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2732,7 +3017,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2741,7 +3026,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>90-85-85-80-80-75/45(종가)</t>
+          <t>90-85-85-80-80-75/50(종가)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2751,7 +3036,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
@@ -2763,16 +3053,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15677 회 (스텝다운)</t>
+          <t>TRUE ELS 제15683 회 (스텝다운)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
+          <t>NAVER, 현대차</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2792,6 +3082,11 @@
       <c r="H59" t="inlineStr">
         <is>
           <t>45</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
@@ -2803,16 +3098,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15676 회 (스텝다운)</t>
+          <t>TRUE ELS 제15684 회 (스텝다운)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>KOSPI200, HSCEI, S&amp;P500</t>
+          <t>테슬라</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2821,7 +3116,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>85-85-85-80-80-80/50(종가)</t>
+          <t>70-70-70-70-65-60/25(종가)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2831,7 +3126,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
@@ -2843,16 +3143,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRUE ELS 제15683 회 (스텝다운)</t>
+          <t>뱅키스계좌전용TRUE ELS 제15687 회 (스텝다운)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NAVER, 현대차</t>
+          <t>NETFLIX, , NVIDIA, CORPORATION</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>20.3</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2861,7 +3161,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>90-85-85-80-80-75/45(종가)</t>
+          <t>85-80-75-70-65-60/40(종가)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2871,7 +3171,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>종목형</t>
         </is>
       </c>
     </row>
@@ -2883,35 +3188,490 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>TRUE ELS 제15685 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>테슬라</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>17</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>75-75-70-70-65-60/35(종가)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2023.01.25 ~2023.02.01</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TRUE ELS 제15684 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>테슬라</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>14</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>70-70-70-70-65-60/25(종가)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2023.01.25 ~2023.02.01</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TRUE ELS 제15686 회 (무조건 월지급식 스텝다운)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>테슬라, S&amp;P500</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>12</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>80-80-75-75-70-60/40(종가)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2023.01.25 ~2023.02.01</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TRUE ELS 제15679 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>9</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>95-90-85-80-75-65/50(종가)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2023.01.25 ~2023.02.01</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TRUE ELS 제15680 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>95-90-85-85-85-85-80-80-80/50(종가)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2023.01.25 ~2023.02.01</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TRUE ELS 제15682 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>삼성전자, HSCEI, S&amp;P500</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>9</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>90-85-85-80-80-75/50(종가)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2023.01.25 ~2023.02.01</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TRUE ELS 제15681 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>삼성전자, HSCEI, S&amp;P500</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>90-85-85-80-80-75/45(종가)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2023.01.25 ~2023.02.01</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TRUE ELS 제15677 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>HSCEI, S&amp;P500, EUROSTOXX50</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>90-85-85-80-80-75/45(종가)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2023.01.25 ~2023.02.01</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TRUE ELS 제15676 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>KOSPI200, HSCEI, S&amp;P500</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>8</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>85-85-85-80-80-80/50(종가)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2023.01.25 ~2023.02.01</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>지수형</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TRUE ELS 제15683 회 (스텝다운)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NAVER, 현대차</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>8</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>90-85-85-80-80-75/45(종가)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2023.01.25 ~2023.02.01</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>종목형</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>한국투자증권</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>TRUE ELS 제15675 회 (파워스텝다운)</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>KOSPI200, HSCEI, S&amp;P500</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D72" t="n">
         <v>7.5</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-100%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-100%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>90-90-85-80-75-55(No K.I)</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>2023.01.25 ~2023.02.01</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>90-90-85-80-75-55(No K.I)</t>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>지수형</t>
         </is>
       </c>
     </row>
